--- a/app/Helpers/Excel/template/uketsuke_haraicho.xlsx
+++ b/app/Helpers/Excel/template/uketsuke_haraicho.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aichi_kousoku\app\Helpers\Excel\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F99AAA-0D24-4917-8861-1D8E100AD64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304926D0-FFC6-40EE-9549-F95830AF6A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="受払元帳" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="打ち合わせメモ２">#REF!</definedName>
     <definedName name="打ち合わせメモ３">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>受　払　元　帳</t>
     <rPh sb="0" eb="3">
@@ -145,23 +145,16 @@
   <si>
     <t>倉庫/ロケーション</t>
   </si>
-  <si>
-    <t>【繰　　越】</t>
-    <rPh sb="1" eb="5">
-      <t>クリコセィ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yy/mm/dd\ h:mm"/>
-    <numFmt numFmtId="165" formatCode="yy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ h:mm;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,13 +203,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -337,7 +323,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -398,18 +384,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -427,50 +401,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -489,9 +445,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -524,12 +477,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2" xfId="2" xr:uid="{51E7FBA0-E935-481A-AC5B-484FE201E389}"/>
-    <cellStyle name="標準 5" xfId="3" xr:uid="{A54C0040-3083-409F-9461-C034CE1831CE}"/>
-    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="1" xr:uid="{41869ED8-3C39-4454-A8FE-8FEB38C897A8}"/>
+    <cellStyle name="標準 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -806,30 +765,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAF62BA-0B3C-4A43-9F9F-948C2DB567C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CT65"/>
+  <dimension ref="A1:BX57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="89" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F4" activeCellId="1" sqref="E1:E1048576 F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="4" width="5.7109375" style="37" customWidth="1"/>
-    <col min="5" max="6" width="5.7109375" style="2" customWidth="1"/>
-    <col min="7" max="14" width="3.28515625" style="2" customWidth="1"/>
-    <col min="15" max="17" width="5.7109375" style="37" customWidth="1"/>
-    <col min="18" max="88" width="3.28515625" style="2" customWidth="1"/>
-    <col min="89" max="92" width="3" style="2"/>
-    <col min="93" max="93" width="0.42578125" style="2" customWidth="1"/>
-    <col min="94" max="16384" width="3" style="2"/>
+    <col min="1" max="1" width="3.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="4" width="3.7109375" style="30" customWidth="1"/>
+    <col min="5" max="6" width="5.28515625" style="2" customWidth="1"/>
+    <col min="7" max="14" width="3" style="2" customWidth="1"/>
+    <col min="15" max="17" width="3.7109375" style="30" customWidth="1"/>
+    <col min="18" max="76" width="3" style="2" customWidth="1"/>
+    <col min="77" max="16384" width="3" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" ht="14.1" customHeight="1">
+    <row r="1" spans="1:76" ht="14.1" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -863,22 +820,22 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
-      <c r="AH1" s="55" t="s">
+      <c r="AH1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
@@ -908,24 +865,8 @@
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
       <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-    </row>
-    <row r="2" spans="1:98" ht="14.1" customHeight="1">
+    </row>
+    <row r="2" spans="1:76" ht="14.1" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -959,20 +900,20 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="1"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="55"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="3"/>
       <c r="AX2" s="1"/>
@@ -1002,24 +943,8 @@
       <c r="BV2" s="1"/>
       <c r="BW2" s="1"/>
       <c r="BX2" s="1"/>
-      <c r="BY2" s="1"/>
-      <c r="BZ2" s="1"/>
-      <c r="CA2" s="1"/>
-      <c r="CB2" s="1"/>
-      <c r="CC2" s="1"/>
-      <c r="CD2" s="1"/>
-      <c r="CE2" s="1"/>
-      <c r="CF2" s="1"/>
-      <c r="CG2" s="1"/>
-      <c r="CH2" s="1"/>
-      <c r="CI2" s="1"/>
-      <c r="CJ2" s="1"/>
-      <c r="CK2" s="1"/>
-      <c r="CL2" s="1"/>
-      <c r="CM2" s="1"/>
-      <c r="CN2" s="1"/>
-    </row>
-    <row r="3" spans="1:98" ht="14.1" customHeight="1">
+    </row>
+    <row r="3" spans="1:76" ht="14.1" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1053,20 +978,20 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
@@ -1096,30 +1021,8 @@
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
       <c r="BX3" s="1"/>
-      <c r="BY3" s="1"/>
-      <c r="BZ3" s="1"/>
-      <c r="CA3" s="1"/>
-      <c r="CB3" s="1"/>
-      <c r="CC3" s="1"/>
-      <c r="CD3" s="1"/>
-      <c r="CE3" s="1"/>
-      <c r="CF3" s="1"/>
-      <c r="CG3" s="1"/>
-      <c r="CH3" s="1"/>
-      <c r="CI3" s="1"/>
-      <c r="CJ3" s="1"/>
-      <c r="CK3" s="1"/>
-      <c r="CL3" s="1"/>
-      <c r="CM3" s="1"/>
-      <c r="CN3" s="1"/>
-      <c r="CO3" s="1"/>
-      <c r="CP3" s="1"/>
-      <c r="CQ3" s="1"/>
-      <c r="CR3" s="1"/>
-      <c r="CS3" s="1"/>
-      <c r="CT3" s="1"/>
-    </row>
-    <row r="4" spans="1:98" ht="14.1" customHeight="1">
+    </row>
+    <row r="4" spans="1:76" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1196,30 +1099,8 @@
       <c r="BV4" s="1"/>
       <c r="BW4" s="1"/>
       <c r="BX4" s="1"/>
-      <c r="BY4" s="1"/>
-      <c r="BZ4" s="1"/>
-      <c r="CA4" s="1"/>
-      <c r="CB4" s="1"/>
-      <c r="CC4" s="1"/>
-      <c r="CD4" s="1"/>
-      <c r="CE4" s="1"/>
-      <c r="CF4" s="1"/>
-      <c r="CG4" s="1"/>
-      <c r="CH4" s="1"/>
-      <c r="CI4" s="1"/>
-      <c r="CJ4" s="1"/>
-      <c r="CK4" s="1"/>
-      <c r="CL4" s="1"/>
-      <c r="CM4" s="1"/>
-      <c r="CN4" s="1"/>
-      <c r="CO4" s="1"/>
-      <c r="CP4" s="1"/>
-      <c r="CQ4" s="1"/>
-      <c r="CR4" s="1"/>
-      <c r="CS4" s="1"/>
-      <c r="CT4" s="1"/>
-    </row>
-    <row r="5" spans="1:98" ht="14.1" customHeight="1">
+    </row>
+    <row r="5" spans="1:76" ht="14.1" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1284,42 +1165,20 @@
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
-      <c r="BM5" s="1"/>
-      <c r="BN5" s="1"/>
-      <c r="BO5" s="53"/>
-      <c r="BP5" s="53"/>
-      <c r="BQ5" s="53"/>
-      <c r="BR5" s="53"/>
-      <c r="BS5" s="53"/>
-      <c r="BT5" s="53"/>
-      <c r="BU5" s="54"/>
-      <c r="BV5" s="54"/>
-      <c r="BW5" s="54"/>
+      <c r="BM5" s="54"/>
+      <c r="BN5" s="54"/>
+      <c r="BO5" s="54"/>
+      <c r="BP5" s="54"/>
+      <c r="BQ5" s="54"/>
+      <c r="BR5" s="54"/>
+      <c r="BS5" s="54"/>
+      <c r="BT5" s="54"/>
+      <c r="BU5" s="43"/>
+      <c r="BV5" s="43"/>
+      <c r="BW5" s="43"/>
       <c r="BX5" s="1"/>
-      <c r="BY5" s="1"/>
-      <c r="BZ5" s="1"/>
-      <c r="CA5" s="1"/>
-      <c r="CB5" s="1"/>
-      <c r="CC5" s="1"/>
-      <c r="CD5" s="1"/>
-      <c r="CE5" s="1"/>
-      <c r="CF5" s="1"/>
-      <c r="CG5" s="1"/>
-      <c r="CH5" s="1"/>
-      <c r="CI5" s="1"/>
-      <c r="CJ5" s="1"/>
-      <c r="CK5" s="1"/>
-      <c r="CL5" s="1"/>
-      <c r="CM5" s="1"/>
-      <c r="CN5" s="1"/>
-      <c r="CO5" s="1"/>
-      <c r="CP5" s="1"/>
-      <c r="CQ5" s="1"/>
-      <c r="CR5" s="1"/>
-      <c r="CS5" s="1"/>
-      <c r="CT5" s="1"/>
-    </row>
-    <row r="6" spans="1:98" ht="14.1" customHeight="1">
+    </row>
+    <row r="6" spans="1:76" ht="14.1" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1396,30 +1255,8 @@
       <c r="BV6" s="1"/>
       <c r="BW6" s="1"/>
       <c r="BX6" s="1"/>
-      <c r="BY6" s="1"/>
-      <c r="BZ6" s="1"/>
-      <c r="CA6" s="1"/>
-      <c r="CB6" s="1"/>
-      <c r="CC6" s="1"/>
-      <c r="CD6" s="1"/>
-      <c r="CE6" s="1"/>
-      <c r="CF6" s="1"/>
-      <c r="CG6" s="1"/>
-      <c r="CH6" s="1"/>
-      <c r="CI6" s="1"/>
-      <c r="CJ6" s="1"/>
-      <c r="CK6" s="1"/>
-      <c r="CL6" s="1"/>
-      <c r="CM6" s="1"/>
-      <c r="CN6" s="1"/>
-      <c r="CO6" s="1"/>
-      <c r="CP6" s="1"/>
-      <c r="CQ6" s="1"/>
-      <c r="CR6" s="1"/>
-      <c r="CS6" s="1"/>
-      <c r="CT6" s="1"/>
-    </row>
-    <row r="7" spans="1:98" ht="14.1" customHeight="1">
+    </row>
+    <row r="7" spans="1:76" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1496,30 +1333,8 @@
       <c r="BV7" s="1"/>
       <c r="BW7" s="1"/>
       <c r="BX7" s="1"/>
-      <c r="BY7" s="1"/>
-      <c r="BZ7" s="1"/>
-      <c r="CA7" s="1"/>
-      <c r="CB7" s="1"/>
-      <c r="CC7" s="1"/>
-      <c r="CD7" s="1"/>
-      <c r="CE7" s="1"/>
-      <c r="CF7" s="1"/>
-      <c r="CG7" s="1"/>
-      <c r="CH7" s="1"/>
-      <c r="CI7" s="1"/>
-      <c r="CJ7" s="1"/>
-      <c r="CK7" s="1"/>
-      <c r="CL7" s="1"/>
-      <c r="CM7" s="1"/>
-      <c r="CN7" s="1"/>
-      <c r="CO7" s="1"/>
-      <c r="CP7" s="1"/>
-      <c r="CQ7" s="1"/>
-      <c r="CR7" s="1"/>
-      <c r="CS7" s="1"/>
-      <c r="CT7" s="1"/>
-    </row>
-    <row r="8" spans="1:98" s="4" customFormat="1" ht="14.1" customHeight="1">
+    </row>
+    <row r="8" spans="1:76" s="4" customFormat="1" ht="14.1" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1531,19 +1346,19 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -1596,36 +1411,14 @@
       <c r="BV8" s="1"/>
       <c r="BW8" s="1"/>
       <c r="BX8" s="1"/>
-      <c r="BY8" s="1"/>
-      <c r="BZ8" s="1"/>
-      <c r="CA8" s="1"/>
-      <c r="CB8" s="1"/>
-      <c r="CC8" s="1"/>
-      <c r="CD8" s="1"/>
-      <c r="CE8" s="1"/>
-      <c r="CF8" s="1"/>
-      <c r="CG8" s="1"/>
-      <c r="CH8" s="1"/>
-      <c r="CI8" s="1"/>
-      <c r="CJ8" s="1"/>
-      <c r="CK8" s="1"/>
-      <c r="CL8" s="1"/>
-      <c r="CM8" s="1"/>
-      <c r="CN8" s="1"/>
-      <c r="CO8" s="1"/>
-      <c r="CP8" s="1"/>
-      <c r="CQ8" s="1"/>
-      <c r="CR8" s="1"/>
-      <c r="CS8" s="1"/>
-      <c r="CT8" s="1"/>
-    </row>
-    <row r="9" spans="1:98" s="4" customFormat="1" ht="14.1" customHeight="1">
+    </row>
+    <row r="9" spans="1:76" s="4" customFormat="1" ht="14.1" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1696,30 +1489,8 @@
       <c r="BV9" s="1"/>
       <c r="BW9" s="1"/>
       <c r="BX9" s="1"/>
-      <c r="BY9" s="1"/>
-      <c r="BZ9" s="1"/>
-      <c r="CA9" s="1"/>
-      <c r="CB9" s="1"/>
-      <c r="CC9" s="1"/>
-      <c r="CD9" s="1"/>
-      <c r="CE9" s="1"/>
-      <c r="CF9" s="1"/>
-      <c r="CG9" s="1"/>
-      <c r="CH9" s="1"/>
-      <c r="CI9" s="1"/>
-      <c r="CJ9" s="1"/>
-      <c r="CK9" s="1"/>
-      <c r="CL9" s="1"/>
-      <c r="CM9" s="1"/>
-      <c r="CN9" s="1"/>
-      <c r="CO9" s="1"/>
-      <c r="CP9" s="1"/>
-      <c r="CQ9" s="1"/>
-      <c r="CR9" s="1"/>
-      <c r="CS9" s="1"/>
-      <c r="CT9" s="1"/>
-    </row>
-    <row r="10" spans="1:98" s="4" customFormat="1" ht="14.1" customHeight="1">
+    </row>
+    <row r="10" spans="1:76" s="4" customFormat="1" ht="14.1" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1796,30 +1567,8 @@
       <c r="BV10" s="1"/>
       <c r="BW10" s="1"/>
       <c r="BX10" s="1"/>
-      <c r="BY10" s="1"/>
-      <c r="BZ10" s="1"/>
-      <c r="CA10" s="1"/>
-      <c r="CB10" s="1"/>
-      <c r="CC10" s="1"/>
-      <c r="CD10" s="1"/>
-      <c r="CE10" s="1"/>
-      <c r="CF10" s="1"/>
-      <c r="CG10" s="1"/>
-      <c r="CH10" s="1"/>
-      <c r="CI10" s="1"/>
-      <c r="CJ10" s="1"/>
-      <c r="CK10" s="1"/>
-      <c r="CL10" s="1"/>
-      <c r="CM10" s="1"/>
-      <c r="CN10" s="1"/>
-      <c r="CO10" s="1"/>
-      <c r="CP10" s="1"/>
-      <c r="CQ10" s="1"/>
-      <c r="CR10" s="1"/>
-      <c r="CS10" s="1"/>
-      <c r="CT10" s="1"/>
-    </row>
-    <row r="11" spans="1:98" s="4" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
+    </row>
+    <row r="11" spans="1:76" s="4" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -1896,254 +1645,188 @@
       <c r="BV11" s="1"/>
       <c r="BW11" s="1"/>
       <c r="BX11" s="1"/>
-      <c r="BY11" s="1"/>
-      <c r="BZ11" s="1"/>
-      <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
-      <c r="CF11" s="1"/>
-      <c r="CG11" s="1"/>
-      <c r="CH11" s="1"/>
-      <c r="CI11" s="1"/>
-      <c r="CJ11" s="1"/>
-      <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
-      <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
-      <c r="CO11" s="1"/>
-      <c r="CP11" s="1"/>
-      <c r="CQ11" s="1"/>
-      <c r="CR11" s="1"/>
-      <c r="CS11" s="1"/>
-      <c r="CT11" s="1"/>
-    </row>
-    <row r="12" spans="1:98" ht="14.1" customHeight="1">
+    </row>
+    <row r="12" spans="1:76" ht="14.1" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="47" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="47" t="s">
+      <c r="F12" s="39"/>
+      <c r="G12" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="47" t="s">
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="47" t="s">
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="58" t="s">
+      <c r="P12" s="38"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="47" t="s">
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="49"/>
-      <c r="AI12" s="47" t="s">
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="48"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="48"/>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="47" t="s">
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="48"/>
-      <c r="AZ12" s="48"/>
-      <c r="BA12" s="48"/>
-      <c r="BB12" s="48"/>
-      <c r="BC12" s="48"/>
-      <c r="BD12" s="48"/>
-      <c r="BE12" s="48"/>
-      <c r="BF12" s="48"/>
-      <c r="BG12" s="48"/>
-      <c r="BH12" s="48"/>
-      <c r="BI12" s="48"/>
-      <c r="BJ12" s="49"/>
-      <c r="BK12" s="47" t="s">
+      <c r="AX12" s="38"/>
+      <c r="AY12" s="38"/>
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="38"/>
+      <c r="BB12" s="38"/>
+      <c r="BC12" s="38"/>
+      <c r="BD12" s="38"/>
+      <c r="BE12" s="38"/>
+      <c r="BF12" s="38"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="38"/>
+      <c r="BJ12" s="39"/>
+      <c r="BK12" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="BL12" s="48"/>
-      <c r="BM12" s="48"/>
-      <c r="BN12" s="48"/>
-      <c r="BO12" s="48"/>
-      <c r="BP12" s="48"/>
-      <c r="BQ12" s="48"/>
-      <c r="BR12" s="48"/>
-      <c r="BS12" s="48"/>
-      <c r="BT12" s="48"/>
-      <c r="BU12" s="48"/>
-      <c r="BV12" s="48"/>
-      <c r="BW12" s="48"/>
-      <c r="BX12" s="49"/>
-      <c r="BY12" s="1"/>
-      <c r="BZ12" s="1"/>
-      <c r="CA12" s="1"/>
-      <c r="CB12" s="1"/>
-      <c r="CC12" s="1"/>
-      <c r="CD12" s="1"/>
-      <c r="CE12" s="1"/>
-      <c r="CF12" s="1"/>
-      <c r="CG12" s="1"/>
-      <c r="CH12" s="1"/>
-      <c r="CI12" s="1"/>
-      <c r="CJ12" s="1"/>
-      <c r="CK12" s="1"/>
-      <c r="CL12" s="1"/>
-      <c r="CM12" s="1"/>
-      <c r="CN12" s="1"/>
-      <c r="CO12" s="1"/>
-      <c r="CP12" s="1"/>
-      <c r="CQ12" s="1"/>
-      <c r="CR12" s="1"/>
-      <c r="CS12" s="1"/>
-      <c r="CT12" s="1"/>
-    </row>
-    <row r="13" spans="1:98" ht="14.1" customHeight="1" thickBot="1">
+      <c r="BL12" s="38"/>
+      <c r="BM12" s="38"/>
+      <c r="BN12" s="38"/>
+      <c r="BO12" s="38"/>
+      <c r="BP12" s="38"/>
+      <c r="BQ12" s="38"/>
+      <c r="BR12" s="38"/>
+      <c r="BS12" s="38"/>
+      <c r="BT12" s="38"/>
+      <c r="BU12" s="38"/>
+      <c r="BV12" s="38"/>
+      <c r="BW12" s="38"/>
+      <c r="BX12" s="39"/>
+    </row>
+    <row r="13" spans="1:76" ht="14.1" customHeight="1" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="51"/>
-      <c r="AV13" s="52"/>
-      <c r="AW13" s="50"/>
-      <c r="AX13" s="51"/>
-      <c r="AY13" s="51"/>
-      <c r="AZ13" s="51"/>
-      <c r="BA13" s="51"/>
-      <c r="BB13" s="51"/>
-      <c r="BC13" s="51"/>
-      <c r="BD13" s="51"/>
-      <c r="BE13" s="51"/>
-      <c r="BF13" s="51"/>
-      <c r="BG13" s="51"/>
-      <c r="BH13" s="51"/>
-      <c r="BI13" s="51"/>
-      <c r="BJ13" s="52"/>
-      <c r="BK13" s="50"/>
-      <c r="BL13" s="51"/>
-      <c r="BM13" s="51"/>
-      <c r="BN13" s="51"/>
-      <c r="BO13" s="51"/>
-      <c r="BP13" s="51"/>
-      <c r="BQ13" s="51"/>
-      <c r="BR13" s="51"/>
-      <c r="BS13" s="51"/>
-      <c r="BT13" s="51"/>
-      <c r="BU13" s="51"/>
-      <c r="BV13" s="51"/>
-      <c r="BW13" s="51"/>
-      <c r="BX13" s="52"/>
-      <c r="BY13" s="1"/>
-      <c r="BZ13" s="1"/>
-      <c r="CA13" s="1"/>
-      <c r="CB13" s="1"/>
-      <c r="CC13" s="1"/>
-      <c r="CD13" s="1"/>
-      <c r="CE13" s="1"/>
-      <c r="CF13" s="1"/>
-      <c r="CG13" s="1"/>
-      <c r="CH13" s="1"/>
-      <c r="CI13" s="1"/>
-      <c r="CJ13" s="1"/>
-      <c r="CK13" s="1"/>
-      <c r="CL13" s="1"/>
-      <c r="CM13" s="1"/>
-      <c r="CN13" s="1"/>
-      <c r="CO13" s="1"/>
-      <c r="CP13" s="1"/>
-      <c r="CQ13" s="1"/>
-      <c r="CR13" s="1"/>
-      <c r="CS13" s="1"/>
-      <c r="CT13" s="1"/>
-    </row>
-    <row r="14" spans="1:98" ht="14.1" customHeight="1">
+      <c r="B13" s="45"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="41"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="41"/>
+      <c r="AV13" s="42"/>
+      <c r="AW13" s="40"/>
+      <c r="AX13" s="41"/>
+      <c r="AY13" s="41"/>
+      <c r="AZ13" s="41"/>
+      <c r="BA13" s="41"/>
+      <c r="BB13" s="41"/>
+      <c r="BC13" s="41"/>
+      <c r="BD13" s="41"/>
+      <c r="BE13" s="41"/>
+      <c r="BF13" s="41"/>
+      <c r="BG13" s="41"/>
+      <c r="BH13" s="41"/>
+      <c r="BI13" s="41"/>
+      <c r="BJ13" s="42"/>
+      <c r="BK13" s="40"/>
+      <c r="BL13" s="41"/>
+      <c r="BM13" s="41"/>
+      <c r="BN13" s="41"/>
+      <c r="BO13" s="41"/>
+      <c r="BP13" s="41"/>
+      <c r="BQ13" s="41"/>
+      <c r="BR13" s="41"/>
+      <c r="BS13" s="41"/>
+      <c r="BT13" s="41"/>
+      <c r="BU13" s="41"/>
+      <c r="BV13" s="41"/>
+      <c r="BW13" s="41"/>
+      <c r="BX13" s="42"/>
+    </row>
+    <row r="14" spans="1:76" ht="14.1" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
       <c r="G14" s="17"/>
@@ -2154,9 +1837,9 @@
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="18"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="42"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="34"/>
       <c r="R14" s="17"/>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
@@ -2174,100 +1857,78 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="18"/>
-      <c r="AI14" s="47" t="s">
+      <c r="AI14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="49"/>
-      <c r="AL14" s="47" t="s">
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AM14" s="49"/>
-      <c r="AN14" s="47" t="s">
+      <c r="AM14" s="39"/>
+      <c r="AN14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AO14" s="48"/>
-      <c r="AP14" s="48"/>
-      <c r="AQ14" s="49"/>
-      <c r="AR14" s="47" t="s">
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="48"/>
-      <c r="AU14" s="48"/>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="47" t="s">
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="39"/>
+      <c r="AW14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="47" t="s">
+      <c r="AX14" s="38"/>
+      <c r="AY14" s="39"/>
+      <c r="AZ14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="BA14" s="49"/>
-      <c r="BB14" s="47" t="s">
+      <c r="BA14" s="39"/>
+      <c r="BB14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="BC14" s="48"/>
-      <c r="BD14" s="48"/>
-      <c r="BE14" s="49"/>
-      <c r="BF14" s="47" t="s">
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="38"/>
+      <c r="BE14" s="39"/>
+      <c r="BF14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="BG14" s="48"/>
-      <c r="BH14" s="48"/>
-      <c r="BI14" s="48"/>
-      <c r="BJ14" s="49"/>
-      <c r="BK14" s="47" t="s">
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="38"/>
+      <c r="BJ14" s="39"/>
+      <c r="BK14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="BL14" s="48"/>
-      <c r="BM14" s="49"/>
-      <c r="BN14" s="47" t="s">
+      <c r="BL14" s="38"/>
+      <c r="BM14" s="39"/>
+      <c r="BN14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="BO14" s="49"/>
-      <c r="BP14" s="47" t="s">
+      <c r="BO14" s="39"/>
+      <c r="BP14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="BQ14" s="48"/>
-      <c r="BR14" s="48"/>
-      <c r="BS14" s="49"/>
-      <c r="BT14" s="47" t="s">
+      <c r="BQ14" s="38"/>
+      <c r="BR14" s="38"/>
+      <c r="BS14" s="39"/>
+      <c r="BT14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="BU14" s="48"/>
-      <c r="BV14" s="48"/>
-      <c r="BW14" s="48"/>
-      <c r="BX14" s="49"/>
-      <c r="BY14" s="1"/>
-      <c r="BZ14" s="1"/>
-      <c r="CA14" s="1"/>
-      <c r="CB14" s="1"/>
-      <c r="CC14" s="1"/>
-      <c r="CD14" s="1"/>
-      <c r="CE14" s="1"/>
-      <c r="CF14" s="1"/>
-      <c r="CG14" s="1"/>
-      <c r="CH14" s="1"/>
-      <c r="CI14" s="1"/>
-      <c r="CJ14" s="1"/>
-      <c r="CK14" s="1"/>
-      <c r="CL14" s="1"/>
-      <c r="CM14" s="1"/>
-      <c r="CN14" s="1"/>
-      <c r="CO14" s="1"/>
-      <c r="CP14" s="1"/>
-      <c r="CQ14" s="1"/>
-      <c r="CR14" s="1"/>
-      <c r="CS14" s="1"/>
-      <c r="CT14" s="1"/>
-    </row>
-    <row r="15" spans="1:98" s="4" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
+      <c r="BU14" s="38"/>
+      <c r="BV14" s="38"/>
+      <c r="BW14" s="38"/>
+      <c r="BX14" s="39"/>
+    </row>
+    <row r="15" spans="1:76" s="4" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="43"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
       <c r="G15" s="9"/>
@@ -2278,9 +1939,9 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="43"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="35"/>
       <c r="R15" s="9"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
@@ -2298,78 +1959,56 @@
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="10"/>
-      <c r="AI15" s="50"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="52"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="52"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="52"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51"/>
-      <c r="AU15" s="51"/>
-      <c r="AV15" s="52"/>
-      <c r="AW15" s="50"/>
-      <c r="AX15" s="51"/>
-      <c r="AY15" s="52"/>
-      <c r="AZ15" s="50"/>
-      <c r="BA15" s="52"/>
-      <c r="BB15" s="50"/>
-      <c r="BC15" s="51"/>
-      <c r="BD15" s="51"/>
-      <c r="BE15" s="52"/>
-      <c r="BF15" s="50"/>
-      <c r="BG15" s="51"/>
-      <c r="BH15" s="51"/>
-      <c r="BI15" s="51"/>
-      <c r="BJ15" s="52"/>
-      <c r="BK15" s="50"/>
-      <c r="BL15" s="51"/>
-      <c r="BM15" s="52"/>
-      <c r="BN15" s="50"/>
-      <c r="BO15" s="52"/>
-      <c r="BP15" s="50"/>
-      <c r="BQ15" s="51"/>
-      <c r="BR15" s="51"/>
-      <c r="BS15" s="52"/>
-      <c r="BT15" s="50"/>
-      <c r="BU15" s="51"/>
-      <c r="BV15" s="51"/>
-      <c r="BW15" s="51"/>
-      <c r="BX15" s="52"/>
-      <c r="BY15" s="1"/>
-      <c r="BZ15" s="1"/>
-      <c r="CA15" s="1"/>
-      <c r="CB15" s="1"/>
-      <c r="CC15" s="1"/>
-      <c r="CD15" s="1"/>
-      <c r="CE15" s="1"/>
-      <c r="CF15" s="1"/>
-      <c r="CG15" s="1"/>
-      <c r="CH15" s="1"/>
-      <c r="CI15" s="1"/>
-      <c r="CJ15" s="1"/>
-      <c r="CK15" s="1"/>
-      <c r="CL15" s="1"/>
-      <c r="CM15" s="1"/>
-      <c r="CN15" s="1"/>
-      <c r="CO15" s="1"/>
-      <c r="CP15" s="1"/>
-      <c r="CQ15" s="1"/>
-      <c r="CR15" s="1"/>
-      <c r="CS15" s="1"/>
-      <c r="CT15" s="1"/>
-    </row>
-    <row r="16" spans="1:98" s="4" customFormat="1" ht="14.1" customHeight="1">
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="42"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="42"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="40"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="41"/>
+      <c r="AV15" s="42"/>
+      <c r="AW15" s="40"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="42"/>
+      <c r="AZ15" s="40"/>
+      <c r="BA15" s="42"/>
+      <c r="BB15" s="40"/>
+      <c r="BC15" s="41"/>
+      <c r="BD15" s="41"/>
+      <c r="BE15" s="42"/>
+      <c r="BF15" s="40"/>
+      <c r="BG15" s="41"/>
+      <c r="BH15" s="41"/>
+      <c r="BI15" s="41"/>
+      <c r="BJ15" s="42"/>
+      <c r="BK15" s="40"/>
+      <c r="BL15" s="41"/>
+      <c r="BM15" s="42"/>
+      <c r="BN15" s="40"/>
+      <c r="BO15" s="42"/>
+      <c r="BP15" s="40"/>
+      <c r="BQ15" s="41"/>
+      <c r="BR15" s="41"/>
+      <c r="BS15" s="42"/>
+      <c r="BT15" s="40"/>
+      <c r="BU15" s="41"/>
+      <c r="BV15" s="41"/>
+      <c r="BW15" s="41"/>
+      <c r="BX15" s="42"/>
+    </row>
+    <row r="16" spans="1:76" s="4" customFormat="1" ht="14.1" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
@@ -2378,28 +2017,26 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="49"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="24"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="12"/>
       <c r="AK16" s="13"/>
@@ -2442,36 +2079,14 @@
       <c r="BV16" s="12"/>
       <c r="BW16" s="12"/>
       <c r="BX16" s="13"/>
-      <c r="BY16" s="1"/>
-      <c r="BZ16" s="1"/>
-      <c r="CA16" s="1"/>
-      <c r="CB16" s="1"/>
-      <c r="CC16" s="1"/>
-      <c r="CD16" s="1"/>
-      <c r="CE16" s="1"/>
-      <c r="CF16" s="1"/>
-      <c r="CG16" s="1"/>
-      <c r="CH16" s="1"/>
-      <c r="CI16" s="1"/>
-      <c r="CJ16" s="1"/>
-      <c r="CK16" s="1"/>
-      <c r="CL16" s="1"/>
-      <c r="CM16" s="1"/>
-      <c r="CN16" s="1"/>
-      <c r="CO16" s="1"/>
-      <c r="CP16" s="1"/>
-      <c r="CQ16" s="1"/>
-      <c r="CR16" s="1"/>
-      <c r="CS16" s="1"/>
-      <c r="CT16" s="1"/>
-    </row>
-    <row r="17" spans="1:98" s="4" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
+    </row>
+    <row r="17" spans="1:76" s="4" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="9"/>
       <c r="H17" s="8"/>
       <c r="I17" s="10"/>
@@ -2480,26 +2095,26 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="52"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="26"/>
       <c r="AI17" s="14"/>
       <c r="AJ17" s="15"/>
       <c r="AK17" s="16"/>
@@ -2542,33 +2157,11 @@
       <c r="BV17" s="15"/>
       <c r="BW17" s="15"/>
       <c r="BX17" s="16"/>
-      <c r="BY17" s="1"/>
-      <c r="BZ17" s="1"/>
-      <c r="CA17" s="1"/>
-      <c r="CB17" s="1"/>
-      <c r="CC17" s="1"/>
-      <c r="CD17" s="1"/>
-      <c r="CE17" s="1"/>
-      <c r="CF17" s="1"/>
-      <c r="CG17" s="1"/>
-      <c r="CH17" s="1"/>
-      <c r="CI17" s="1"/>
-      <c r="CJ17" s="1"/>
-      <c r="CK17" s="1"/>
-      <c r="CL17" s="1"/>
-      <c r="CM17" s="1"/>
-      <c r="CN17" s="1"/>
-      <c r="CO17" s="1"/>
-      <c r="CP17" s="1"/>
-      <c r="CQ17" s="1"/>
-      <c r="CR17" s="1"/>
-      <c r="CS17" s="1"/>
-      <c r="CT17" s="1"/>
-    </row>
-    <row r="18" spans="1:98" ht="14.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="46"/>
+    </row>
+    <row r="18" spans="1:76" ht="14.25">
+      <c r="B18" s="29"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="5"/>
       <c r="F18" s="7"/>
       <c r="G18" s="5"/>
@@ -2579,26 +2172,26 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="28"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="24"/>
       <c r="AI18" s="11"/>
       <c r="AJ18" s="12"/>
       <c r="AK18" s="13"/>
@@ -2642,10 +2235,10 @@
       <c r="BW18" s="12"/>
       <c r="BX18" s="13"/>
     </row>
-    <row r="19" spans="1:98" ht="15" thickBot="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="43"/>
+    <row r="19" spans="1:76" ht="15" thickBot="1">
+      <c r="B19" s="28"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
       <c r="G19" s="9"/>
@@ -2656,26 +2249,26 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="30"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="26"/>
       <c r="AI19" s="14"/>
       <c r="AJ19" s="15"/>
       <c r="AK19" s="16"/>
@@ -2719,10 +2312,10 @@
       <c r="BW19" s="15"/>
       <c r="BX19" s="16"/>
     </row>
-    <row r="20" spans="1:98" ht="14.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="46"/>
+    <row r="20" spans="1:76" ht="14.25">
+      <c r="B20" s="29"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="5"/>
       <c r="F20" s="7"/>
       <c r="G20" s="5"/>
@@ -2733,26 +2326,26 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="28"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="24"/>
       <c r="AI20" s="11"/>
       <c r="AJ20" s="12"/>
       <c r="AK20" s="13"/>
@@ -2796,10 +2389,10 @@
       <c r="BW20" s="12"/>
       <c r="BX20" s="13"/>
     </row>
-    <row r="21" spans="1:98" ht="15" thickBot="1">
-      <c r="B21" s="33"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="43"/>
+    <row r="21" spans="1:76" ht="15" thickBot="1">
+      <c r="B21" s="28"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="9"/>
@@ -2810,26 +2403,26 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="30"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="26"/>
       <c r="AI21" s="14"/>
       <c r="AJ21" s="15"/>
       <c r="AK21" s="16"/>
@@ -2873,10 +2466,10 @@
       <c r="BW21" s="15"/>
       <c r="BX21" s="16"/>
     </row>
-    <row r="22" spans="1:98" ht="14.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="46"/>
+    <row r="22" spans="1:76" ht="14.25">
+      <c r="B22" s="29"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="5"/>
       <c r="F22" s="7"/>
       <c r="G22" s="5"/>
@@ -2887,26 +2480,26 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="28"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="24"/>
       <c r="AI22" s="11"/>
       <c r="AJ22" s="12"/>
       <c r="AK22" s="13"/>
@@ -2950,10 +2543,10 @@
       <c r="BW22" s="12"/>
       <c r="BX22" s="13"/>
     </row>
-    <row r="23" spans="1:98" ht="15" thickBot="1">
-      <c r="B23" s="33"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="43"/>
+    <row r="23" spans="1:76" ht="15" thickBot="1">
+      <c r="B23" s="28"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
       <c r="G23" s="9"/>
@@ -2964,26 +2557,26 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="30"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="26"/>
       <c r="AI23" s="14"/>
       <c r="AJ23" s="15"/>
       <c r="AK23" s="16"/>
@@ -3027,10 +2620,10 @@
       <c r="BW23" s="15"/>
       <c r="BX23" s="16"/>
     </row>
-    <row r="24" spans="1:98" ht="14.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="46"/>
+    <row r="24" spans="1:76" ht="14.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="5"/>
       <c r="F24" s="7"/>
       <c r="G24" s="5"/>
@@ -3041,26 +2634,26 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="28"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="24"/>
       <c r="AI24" s="11"/>
       <c r="AJ24" s="12"/>
       <c r="AK24" s="13"/>
@@ -3104,10 +2697,10 @@
       <c r="BW24" s="12"/>
       <c r="BX24" s="13"/>
     </row>
-    <row r="25" spans="1:98" ht="15" thickBot="1">
-      <c r="B25" s="33"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="43"/>
+    <row r="25" spans="1:76" ht="15" thickBot="1">
+      <c r="B25" s="28"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
       <c r="G25" s="9"/>
@@ -3118,26 +2711,26 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="30"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="26"/>
       <c r="AI25" s="14"/>
       <c r="AJ25" s="15"/>
       <c r="AK25" s="16"/>
@@ -3181,10 +2774,10 @@
       <c r="BW25" s="15"/>
       <c r="BX25" s="16"/>
     </row>
-    <row r="26" spans="1:98" ht="14.25">
-      <c r="B26" s="36"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="46"/>
+    <row r="26" spans="1:76" ht="14.25">
+      <c r="B26" s="29"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="5"/>
       <c r="F26" s="7"/>
       <c r="G26" s="5"/>
@@ -3195,26 +2788,26 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="28"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="24"/>
       <c r="AI26" s="11"/>
       <c r="AJ26" s="12"/>
       <c r="AK26" s="13"/>
@@ -3258,10 +2851,10 @@
       <c r="BW26" s="12"/>
       <c r="BX26" s="13"/>
     </row>
-    <row r="27" spans="1:98" ht="15" thickBot="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="43"/>
+    <row r="27" spans="1:76" ht="15" thickBot="1">
+      <c r="B27" s="28"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
       <c r="G27" s="9"/>
@@ -3272,26 +2865,26 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="30"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="26"/>
       <c r="AI27" s="14"/>
       <c r="AJ27" s="15"/>
       <c r="AK27" s="16"/>
@@ -3335,10 +2928,10 @@
       <c r="BW27" s="15"/>
       <c r="BX27" s="16"/>
     </row>
-    <row r="28" spans="1:98" ht="14.25">
-      <c r="B28" s="36"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="46"/>
+    <row r="28" spans="1:76" ht="14.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="5"/>
       <c r="F28" s="7"/>
       <c r="G28" s="5"/>
@@ -3349,26 +2942,26 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="28"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="24"/>
       <c r="AI28" s="11"/>
       <c r="AJ28" s="12"/>
       <c r="AK28" s="13"/>
@@ -3412,10 +3005,10 @@
       <c r="BW28" s="12"/>
       <c r="BX28" s="13"/>
     </row>
-    <row r="29" spans="1:98" ht="15" thickBot="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="43"/>
+    <row r="29" spans="1:76" ht="15" thickBot="1">
+      <c r="B29" s="28"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
       <c r="G29" s="9"/>
@@ -3426,26 +3019,26 @@
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="10"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="30"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="26"/>
       <c r="AI29" s="14"/>
       <c r="AJ29" s="15"/>
       <c r="AK29" s="16"/>
@@ -3489,10 +3082,10 @@
       <c r="BW29" s="15"/>
       <c r="BX29" s="16"/>
     </row>
-    <row r="30" spans="1:98" ht="14.25">
-      <c r="B30" s="36"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="46"/>
+    <row r="30" spans="1:76" ht="14.25">
+      <c r="B30" s="29"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="5"/>
       <c r="F30" s="7"/>
       <c r="G30" s="5"/>
@@ -3503,26 +3096,26 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="28"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="24"/>
       <c r="AI30" s="11"/>
       <c r="AJ30" s="12"/>
       <c r="AK30" s="13"/>
@@ -3566,10 +3159,10 @@
       <c r="BW30" s="12"/>
       <c r="BX30" s="13"/>
     </row>
-    <row r="31" spans="1:98" ht="15" thickBot="1">
-      <c r="B31" s="33"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="43"/>
+    <row r="31" spans="1:76" ht="15" thickBot="1">
+      <c r="B31" s="28"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
       <c r="G31" s="9"/>
@@ -3580,26 +3173,26 @@
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="30"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="26"/>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="15"/>
       <c r="AK31" s="16"/>
@@ -3643,10 +3236,10 @@
       <c r="BW31" s="15"/>
       <c r="BX31" s="16"/>
     </row>
-    <row r="32" spans="1:98" ht="14.25">
-      <c r="B32" s="36"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="46"/>
+    <row r="32" spans="1:76" ht="14.25">
+      <c r="B32" s="29"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="5"/>
       <c r="F32" s="7"/>
       <c r="G32" s="5"/>
@@ -3657,26 +3250,26 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="28"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="24"/>
       <c r="AI32" s="11"/>
       <c r="AJ32" s="12"/>
       <c r="AK32" s="13"/>
@@ -3721,9 +3314,9 @@
       <c r="BX32" s="13"/>
     </row>
     <row r="33" spans="2:76" ht="15" thickBot="1">
-      <c r="B33" s="33"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="43"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="9"/>
       <c r="F33" s="10"/>
       <c r="G33" s="9"/>
@@ -3734,26 +3327,26 @@
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="10"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="29"/>
-      <c r="AF33" s="29"/>
-      <c r="AG33" s="29"/>
-      <c r="AH33" s="30"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="26"/>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="15"/>
       <c r="AK33" s="16"/>
@@ -3798,9 +3391,9 @@
       <c r="BX33" s="16"/>
     </row>
     <row r="34" spans="2:76" ht="14.25">
-      <c r="B34" s="36"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="46"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="5"/>
       <c r="F34" s="7"/>
       <c r="G34" s="5"/>
@@ -3811,26 +3404,26 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="28"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="24"/>
       <c r="AI34" s="11"/>
       <c r="AJ34" s="12"/>
       <c r="AK34" s="13"/>
@@ -3875,9 +3468,9 @@
       <c r="BX34" s="13"/>
     </row>
     <row r="35" spans="2:76" ht="15" thickBot="1">
-      <c r="B35" s="33"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="43"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="9"/>
       <c r="F35" s="10"/>
       <c r="G35" s="9"/>
@@ -3888,26 +3481,26 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="29"/>
-      <c r="AF35" s="29"/>
-      <c r="AG35" s="29"/>
-      <c r="AH35" s="30"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="26"/>
       <c r="AI35" s="14"/>
       <c r="AJ35" s="15"/>
       <c r="AK35" s="16"/>
@@ -3952,9 +3545,9 @@
       <c r="BX35" s="16"/>
     </row>
     <row r="36" spans="2:76" ht="14.25">
-      <c r="B36" s="36"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="46"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="5"/>
       <c r="F36" s="7"/>
       <c r="G36" s="5"/>
@@ -3965,26 +3558,26 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="27"/>
-      <c r="AH36" s="28"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="24"/>
       <c r="AI36" s="11"/>
       <c r="AJ36" s="12"/>
       <c r="AK36" s="13"/>
@@ -4029,9 +3622,9 @@
       <c r="BX36" s="13"/>
     </row>
     <row r="37" spans="2:76" ht="15" thickBot="1">
-      <c r="B37" s="33"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="43"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="9"/>
       <c r="F37" s="10"/>
       <c r="G37" s="9"/>
@@ -4042,26 +3635,26 @@
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="10"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="29"/>
-      <c r="AG37" s="29"/>
-      <c r="AH37" s="30"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="26"/>
       <c r="AI37" s="14"/>
       <c r="AJ37" s="15"/>
       <c r="AK37" s="16"/>
@@ -4106,9 +3699,9 @@
       <c r="BX37" s="16"/>
     </row>
     <row r="38" spans="2:76" ht="14.25">
-      <c r="B38" s="36"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="46"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="5"/>
       <c r="F38" s="7"/>
       <c r="G38" s="5"/>
@@ -4119,26 +3712,26 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="28"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="24"/>
       <c r="AI38" s="11"/>
       <c r="AJ38" s="12"/>
       <c r="AK38" s="13"/>
@@ -4183,9 +3776,9 @@
       <c r="BX38" s="13"/>
     </row>
     <row r="39" spans="2:76" ht="15" thickBot="1">
-      <c r="B39" s="33"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="43"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="9"/>
       <c r="F39" s="10"/>
       <c r="G39" s="9"/>
@@ -4196,26 +3789,26 @@
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="10"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="30"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="26"/>
       <c r="AI39" s="14"/>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="16"/>
@@ -4260,9 +3853,9 @@
       <c r="BX39" s="16"/>
     </row>
     <row r="40" spans="2:76" ht="14.25">
-      <c r="B40" s="36"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="46"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="5"/>
       <c r="F40" s="7"/>
       <c r="G40" s="5"/>
@@ -4273,26 +3866,26 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
-      <c r="AF40" s="27"/>
-      <c r="AG40" s="27"/>
-      <c r="AH40" s="28"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="24"/>
       <c r="AI40" s="11"/>
       <c r="AJ40" s="12"/>
       <c r="AK40" s="13"/>
@@ -4337,9 +3930,9 @@
       <c r="BX40" s="13"/>
     </row>
     <row r="41" spans="2:76" ht="15" thickBot="1">
-      <c r="B41" s="33"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="43"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="9"/>
       <c r="F41" s="10"/>
       <c r="G41" s="9"/>
@@ -4350,26 +3943,26 @@
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="10"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="30"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="26"/>
       <c r="AI41" s="14"/>
       <c r="AJ41" s="15"/>
       <c r="AK41" s="16"/>
@@ -4414,9 +4007,9 @@
       <c r="BX41" s="16"/>
     </row>
     <row r="42" spans="2:76" ht="14.25">
-      <c r="B42" s="36"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="46"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="36"/>
       <c r="E42" s="5"/>
       <c r="F42" s="7"/>
       <c r="G42" s="5"/>
@@ -4427,26 +4020,26 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
-      <c r="AF42" s="27"/>
-      <c r="AG42" s="27"/>
-      <c r="AH42" s="28"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="23"/>
+      <c r="AD42" s="23"/>
+      <c r="AE42" s="23"/>
+      <c r="AF42" s="23"/>
+      <c r="AG42" s="23"/>
+      <c r="AH42" s="24"/>
       <c r="AI42" s="11"/>
       <c r="AJ42" s="12"/>
       <c r="AK42" s="13"/>
@@ -4491,9 +4084,9 @@
       <c r="BX42" s="13"/>
     </row>
     <row r="43" spans="2:76" ht="15" thickBot="1">
-      <c r="B43" s="33"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="43"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="9"/>
       <c r="F43" s="10"/>
       <c r="G43" s="9"/>
@@ -4504,26 +4097,26 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="10"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
-      <c r="AG43" s="29"/>
-      <c r="AH43" s="30"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="26"/>
       <c r="AI43" s="14"/>
       <c r="AJ43" s="15"/>
       <c r="AK43" s="16"/>
@@ -4568,9 +4161,9 @@
       <c r="BX43" s="16"/>
     </row>
     <row r="44" spans="2:76" ht="14.25">
-      <c r="B44" s="36"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="46"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="5"/>
       <c r="F44" s="7"/>
       <c r="G44" s="5"/>
@@ -4581,26 +4174,26 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="27"/>
-      <c r="AE44" s="27"/>
-      <c r="AF44" s="27"/>
-      <c r="AG44" s="27"/>
-      <c r="AH44" s="28"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="23"/>
+      <c r="AD44" s="23"/>
+      <c r="AE44" s="23"/>
+      <c r="AF44" s="23"/>
+      <c r="AG44" s="23"/>
+      <c r="AH44" s="24"/>
       <c r="AI44" s="11"/>
       <c r="AJ44" s="12"/>
       <c r="AK44" s="13"/>
@@ -4645,9 +4238,9 @@
       <c r="BX44" s="13"/>
     </row>
     <row r="45" spans="2:76" ht="15" thickBot="1">
-      <c r="B45" s="33"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="43"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="9"/>
       <c r="F45" s="10"/>
       <c r="G45" s="9"/>
@@ -4658,26 +4251,26 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="26"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-      <c r="AH45" s="30"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+      <c r="AF45" s="25"/>
+      <c r="AG45" s="25"/>
+      <c r="AH45" s="26"/>
       <c r="AI45" s="14"/>
       <c r="AJ45" s="15"/>
       <c r="AK45" s="16"/>
@@ -4722,9 +4315,9 @@
       <c r="BX45" s="16"/>
     </row>
     <row r="46" spans="2:76" ht="14.25">
-      <c r="B46" s="36"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="46"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="36"/>
       <c r="E46" s="5"/>
       <c r="F46" s="7"/>
       <c r="G46" s="5"/>
@@ -4735,26 +4328,26 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
-      <c r="AD46" s="27"/>
-      <c r="AE46" s="27"/>
-      <c r="AF46" s="27"/>
-      <c r="AG46" s="27"/>
-      <c r="AH46" s="28"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="23"/>
+      <c r="AB46" s="23"/>
+      <c r="AC46" s="23"/>
+      <c r="AD46" s="23"/>
+      <c r="AE46" s="23"/>
+      <c r="AF46" s="23"/>
+      <c r="AG46" s="23"/>
+      <c r="AH46" s="24"/>
       <c r="AI46" s="11"/>
       <c r="AJ46" s="12"/>
       <c r="AK46" s="13"/>
@@ -4799,9 +4392,9 @@
       <c r="BX46" s="13"/>
     </row>
     <row r="47" spans="2:76" ht="15" thickBot="1">
-      <c r="B47" s="33"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="43"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="9"/>
       <c r="F47" s="10"/>
       <c r="G47" s="9"/>
@@ -4812,26 +4405,26 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="10"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="26"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="30"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="26"/>
       <c r="AI47" s="14"/>
       <c r="AJ47" s="15"/>
       <c r="AK47" s="16"/>
@@ -4876,9 +4469,9 @@
       <c r="BX47" s="16"/>
     </row>
     <row r="48" spans="2:76" ht="14.25">
-      <c r="B48" s="36"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="46"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="36"/>
       <c r="E48" s="5"/>
       <c r="F48" s="7"/>
       <c r="G48" s="5"/>
@@ -4889,26 +4482,26 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="27"/>
-      <c r="AE48" s="27"/>
-      <c r="AF48" s="27"/>
-      <c r="AG48" s="27"/>
-      <c r="AH48" s="28"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="23"/>
+      <c r="AD48" s="23"/>
+      <c r="AE48" s="23"/>
+      <c r="AF48" s="23"/>
+      <c r="AG48" s="23"/>
+      <c r="AH48" s="24"/>
       <c r="AI48" s="11"/>
       <c r="AJ48" s="12"/>
       <c r="AK48" s="13"/>
@@ -4953,9 +4546,9 @@
       <c r="BX48" s="13"/>
     </row>
     <row r="49" spans="2:76" ht="15" thickBot="1">
-      <c r="B49" s="33"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="43"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="35"/>
       <c r="E49" s="9"/>
       <c r="F49" s="10"/>
       <c r="G49" s="9"/>
@@ -4966,26 +4559,26 @@
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="10"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="26"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="29"/>
-      <c r="AA49" s="29"/>
-      <c r="AB49" s="29"/>
-      <c r="AC49" s="29"/>
-      <c r="AD49" s="29"/>
-      <c r="AE49" s="29"/>
-      <c r="AF49" s="29"/>
-      <c r="AG49" s="29"/>
-      <c r="AH49" s="30"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="26"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="25"/>
+      <c r="AD49" s="25"/>
+      <c r="AE49" s="25"/>
+      <c r="AF49" s="25"/>
+      <c r="AG49" s="25"/>
+      <c r="AH49" s="26"/>
       <c r="AI49" s="14"/>
       <c r="AJ49" s="15"/>
       <c r="AK49" s="16"/>
@@ -5030,9 +4623,9 @@
       <c r="BX49" s="16"/>
     </row>
     <row r="50" spans="2:76" ht="14.25">
-      <c r="B50" s="36"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="5"/>
       <c r="F50" s="7"/>
       <c r="G50" s="5"/>
@@ -5043,26 +4636,26 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="25"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27"/>
-      <c r="AE50" s="27"/>
-      <c r="AF50" s="27"/>
-      <c r="AG50" s="27"/>
-      <c r="AH50" s="28"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="23"/>
+      <c r="Z50" s="23"/>
+      <c r="AA50" s="23"/>
+      <c r="AB50" s="23"/>
+      <c r="AC50" s="23"/>
+      <c r="AD50" s="23"/>
+      <c r="AE50" s="23"/>
+      <c r="AF50" s="23"/>
+      <c r="AG50" s="23"/>
+      <c r="AH50" s="24"/>
       <c r="AI50" s="11"/>
       <c r="AJ50" s="12"/>
       <c r="AK50" s="13"/>
@@ -5107,9 +4700,9 @@
       <c r="BX50" s="13"/>
     </row>
     <row r="51" spans="2:76" ht="15" thickBot="1">
-      <c r="B51" s="33"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="43"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="35"/>
       <c r="E51" s="9"/>
       <c r="F51" s="10"/>
       <c r="G51" s="9"/>
@@ -5120,26 +4713,26 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="10"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="29"/>
-      <c r="AG51" s="29"/>
-      <c r="AH51" s="30"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+      <c r="AF51" s="25"/>
+      <c r="AG51" s="25"/>
+      <c r="AH51" s="26"/>
       <c r="AI51" s="14"/>
       <c r="AJ51" s="15"/>
       <c r="AK51" s="16"/>
@@ -5184,9 +4777,9 @@
       <c r="BX51" s="16"/>
     </row>
     <row r="52" spans="2:76" ht="14.25">
-      <c r="B52" s="36"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="46"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="36"/>
       <c r="E52" s="5"/>
       <c r="F52" s="7"/>
       <c r="G52" s="5"/>
@@ -5197,26 +4790,26 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="25"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="27"/>
-      <c r="AD52" s="27"/>
-      <c r="AE52" s="27"/>
-      <c r="AF52" s="27"/>
-      <c r="AG52" s="27"/>
-      <c r="AH52" s="28"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="23"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="23"/>
+      <c r="AC52" s="23"/>
+      <c r="AD52" s="23"/>
+      <c r="AE52" s="23"/>
+      <c r="AF52" s="23"/>
+      <c r="AG52" s="23"/>
+      <c r="AH52" s="24"/>
       <c r="AI52" s="11"/>
       <c r="AJ52" s="12"/>
       <c r="AK52" s="13"/>
@@ -5261,9 +4854,9 @@
       <c r="BX52" s="13"/>
     </row>
     <row r="53" spans="2:76" ht="15" thickBot="1">
-      <c r="B53" s="33"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="43"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="35"/>
       <c r="E53" s="9"/>
       <c r="F53" s="10"/>
       <c r="G53" s="9"/>
@@ -5274,26 +4867,26 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="10"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="26"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="29"/>
-      <c r="AD53" s="29"/>
-      <c r="AE53" s="29"/>
-      <c r="AF53" s="29"/>
-      <c r="AG53" s="29"/>
-      <c r="AH53" s="30"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="26"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="25"/>
+      <c r="AD53" s="25"/>
+      <c r="AE53" s="25"/>
+      <c r="AF53" s="25"/>
+      <c r="AG53" s="25"/>
+      <c r="AH53" s="26"/>
       <c r="AI53" s="14"/>
       <c r="AJ53" s="15"/>
       <c r="AK53" s="16"/>
@@ -5338,9 +4931,9 @@
       <c r="BX53" s="16"/>
     </row>
     <row r="54" spans="2:76" ht="14.25">
-      <c r="B54" s="36"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="46"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="36"/>
       <c r="E54" s="5"/>
       <c r="F54" s="7"/>
       <c r="G54" s="5"/>
@@ -5351,26 +4944,26 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="46"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="25"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="27"/>
-      <c r="AE54" s="27"/>
-      <c r="AF54" s="27"/>
-      <c r="AG54" s="27"/>
-      <c r="AH54" s="28"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="23"/>
+      <c r="AC54" s="23"/>
+      <c r="AD54" s="23"/>
+      <c r="AE54" s="23"/>
+      <c r="AF54" s="23"/>
+      <c r="AG54" s="23"/>
+      <c r="AH54" s="24"/>
       <c r="AI54" s="11"/>
       <c r="AJ54" s="12"/>
       <c r="AK54" s="13"/>
@@ -5415,9 +5008,9 @@
       <c r="BX54" s="13"/>
     </row>
     <row r="55" spans="2:76" ht="15" thickBot="1">
-      <c r="B55" s="33"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="43"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="35"/>
       <c r="E55" s="9"/>
       <c r="F55" s="10"/>
       <c r="G55" s="9"/>
@@ -5428,26 +5021,26 @@
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="10"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="26"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="26"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="29"/>
-      <c r="Z55" s="29"/>
-      <c r="AA55" s="29"/>
-      <c r="AB55" s="29"/>
-      <c r="AC55" s="29"/>
-      <c r="AD55" s="29"/>
-      <c r="AE55" s="29"/>
-      <c r="AF55" s="29"/>
-      <c r="AG55" s="29"/>
-      <c r="AH55" s="30"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="26"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="25"/>
+      <c r="AC55" s="25"/>
+      <c r="AD55" s="25"/>
+      <c r="AE55" s="25"/>
+      <c r="AF55" s="25"/>
+      <c r="AG55" s="25"/>
+      <c r="AH55" s="26"/>
       <c r="AI55" s="14"/>
       <c r="AJ55" s="15"/>
       <c r="AK55" s="16"/>
@@ -5492,9 +5085,9 @@
       <c r="BX55" s="16"/>
     </row>
     <row r="56" spans="2:76" ht="14.25">
-      <c r="B56" s="36"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="46"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="36"/>
       <c r="E56" s="5"/>
       <c r="F56" s="7"/>
       <c r="G56" s="5"/>
@@ -5505,26 +5098,26 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="25"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="27"/>
-      <c r="AB56" s="27"/>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="27"/>
-      <c r="AE56" s="27"/>
-      <c r="AF56" s="27"/>
-      <c r="AG56" s="27"/>
-      <c r="AH56" s="28"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="23"/>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="23"/>
+      <c r="AC56" s="23"/>
+      <c r="AD56" s="23"/>
+      <c r="AE56" s="23"/>
+      <c r="AF56" s="23"/>
+      <c r="AG56" s="23"/>
+      <c r="AH56" s="24"/>
       <c r="AI56" s="11"/>
       <c r="AJ56" s="12"/>
       <c r="AK56" s="13"/>
@@ -5569,9 +5162,9 @@
       <c r="BX56" s="13"/>
     </row>
     <row r="57" spans="2:76" ht="15" thickBot="1">
-      <c r="B57" s="33"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="43"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="35"/>
       <c r="E57" s="9"/>
       <c r="F57" s="10"/>
       <c r="G57" s="9"/>
@@ -5582,26 +5175,26 @@
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
       <c r="N57" s="10"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="26"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="29"/>
-      <c r="AA57" s="29"/>
-      <c r="AB57" s="29"/>
-      <c r="AC57" s="29"/>
-      <c r="AD57" s="29"/>
-      <c r="AE57" s="29"/>
-      <c r="AF57" s="29"/>
-      <c r="AG57" s="29"/>
-      <c r="AH57" s="30"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="26"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+      <c r="AA57" s="25"/>
+      <c r="AB57" s="25"/>
+      <c r="AC57" s="25"/>
+      <c r="AD57" s="25"/>
+      <c r="AE57" s="25"/>
+      <c r="AF57" s="25"/>
+      <c r="AG57" s="25"/>
+      <c r="AH57" s="26"/>
       <c r="AI57" s="14"/>
       <c r="AJ57" s="15"/>
       <c r="AK57" s="16"/>
@@ -5645,625 +5238,8 @@
       <c r="BW57" s="15"/>
       <c r="BX57" s="16"/>
     </row>
-    <row r="58" spans="2:76" ht="14.25">
-      <c r="B58" s="36"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="25"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="27"/>
-      <c r="Z58" s="27"/>
-      <c r="AA58" s="27"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="27"/>
-      <c r="AE58" s="27"/>
-      <c r="AF58" s="27"/>
-      <c r="AG58" s="27"/>
-      <c r="AH58" s="28"/>
-      <c r="AI58" s="11"/>
-      <c r="AJ58" s="12"/>
-      <c r="AK58" s="13"/>
-      <c r="AL58" s="11"/>
-      <c r="AM58" s="13"/>
-      <c r="AN58" s="11"/>
-      <c r="AO58" s="12"/>
-      <c r="AP58" s="12"/>
-      <c r="AQ58" s="13"/>
-      <c r="AR58" s="11"/>
-      <c r="AS58" s="12"/>
-      <c r="AT58" s="12"/>
-      <c r="AU58" s="12"/>
-      <c r="AV58" s="13"/>
-      <c r="AW58" s="11"/>
-      <c r="AX58" s="12"/>
-      <c r="AY58" s="13"/>
-      <c r="AZ58" s="11"/>
-      <c r="BA58" s="13"/>
-      <c r="BB58" s="11"/>
-      <c r="BC58" s="12"/>
-      <c r="BD58" s="12"/>
-      <c r="BE58" s="13"/>
-      <c r="BF58" s="11"/>
-      <c r="BG58" s="12"/>
-      <c r="BH58" s="12"/>
-      <c r="BI58" s="12"/>
-      <c r="BJ58" s="13"/>
-      <c r="BK58" s="11"/>
-      <c r="BL58" s="12"/>
-      <c r="BM58" s="13"/>
-      <c r="BN58" s="11"/>
-      <c r="BO58" s="13"/>
-      <c r="BP58" s="11"/>
-      <c r="BQ58" s="12"/>
-      <c r="BR58" s="12"/>
-      <c r="BS58" s="13"/>
-      <c r="BT58" s="11"/>
-      <c r="BU58" s="12"/>
-      <c r="BV58" s="12"/>
-      <c r="BW58" s="12"/>
-      <c r="BX58" s="13"/>
-    </row>
-    <row r="59" spans="2:76" ht="15" thickBot="1">
-      <c r="B59" s="33"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="30"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="29"/>
-      <c r="AA59" s="29"/>
-      <c r="AB59" s="29"/>
-      <c r="AC59" s="29"/>
-      <c r="AD59" s="29"/>
-      <c r="AE59" s="29"/>
-      <c r="AF59" s="29"/>
-      <c r="AG59" s="29"/>
-      <c r="AH59" s="30"/>
-      <c r="AI59" s="14"/>
-      <c r="AJ59" s="15"/>
-      <c r="AK59" s="16"/>
-      <c r="AL59" s="14"/>
-      <c r="AM59" s="16"/>
-      <c r="AN59" s="14"/>
-      <c r="AO59" s="15"/>
-      <c r="AP59" s="15"/>
-      <c r="AQ59" s="16"/>
-      <c r="AR59" s="14"/>
-      <c r="AS59" s="15"/>
-      <c r="AT59" s="15"/>
-      <c r="AU59" s="15"/>
-      <c r="AV59" s="16"/>
-      <c r="AW59" s="14"/>
-      <c r="AX59" s="15"/>
-      <c r="AY59" s="16"/>
-      <c r="AZ59" s="14"/>
-      <c r="BA59" s="16"/>
-      <c r="BB59" s="14"/>
-      <c r="BC59" s="15"/>
-      <c r="BD59" s="15"/>
-      <c r="BE59" s="16"/>
-      <c r="BF59" s="14"/>
-      <c r="BG59" s="15"/>
-      <c r="BH59" s="15"/>
-      <c r="BI59" s="15"/>
-      <c r="BJ59" s="16"/>
-      <c r="BK59" s="14"/>
-      <c r="BL59" s="15"/>
-      <c r="BM59" s="16"/>
-      <c r="BN59" s="14"/>
-      <c r="BO59" s="16"/>
-      <c r="BP59" s="14"/>
-      <c r="BQ59" s="15"/>
-      <c r="BR59" s="15"/>
-      <c r="BS59" s="16"/>
-      <c r="BT59" s="14"/>
-      <c r="BU59" s="15"/>
-      <c r="BV59" s="15"/>
-      <c r="BW59" s="15"/>
-      <c r="BX59" s="16"/>
-    </row>
-    <row r="60" spans="2:76" ht="14.25">
-      <c r="B60" s="36"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="46"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="25"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="27"/>
-      <c r="AB60" s="27"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="27"/>
-      <c r="AE60" s="27"/>
-      <c r="AF60" s="27"/>
-      <c r="AG60" s="27"/>
-      <c r="AH60" s="28"/>
-      <c r="AI60" s="11"/>
-      <c r="AJ60" s="12"/>
-      <c r="AK60" s="13"/>
-      <c r="AL60" s="11"/>
-      <c r="AM60" s="13"/>
-      <c r="AN60" s="11"/>
-      <c r="AO60" s="12"/>
-      <c r="AP60" s="12"/>
-      <c r="AQ60" s="13"/>
-      <c r="AR60" s="11"/>
-      <c r="AS60" s="12"/>
-      <c r="AT60" s="12"/>
-      <c r="AU60" s="12"/>
-      <c r="AV60" s="13"/>
-      <c r="AW60" s="11"/>
-      <c r="AX60" s="12"/>
-      <c r="AY60" s="13"/>
-      <c r="AZ60" s="11"/>
-      <c r="BA60" s="13"/>
-      <c r="BB60" s="11"/>
-      <c r="BC60" s="12"/>
-      <c r="BD60" s="12"/>
-      <c r="BE60" s="13"/>
-      <c r="BF60" s="11"/>
-      <c r="BG60" s="12"/>
-      <c r="BH60" s="12"/>
-      <c r="BI60" s="12"/>
-      <c r="BJ60" s="13"/>
-      <c r="BK60" s="11"/>
-      <c r="BL60" s="12"/>
-      <c r="BM60" s="13"/>
-      <c r="BN60" s="11"/>
-      <c r="BO60" s="13"/>
-      <c r="BP60" s="11"/>
-      <c r="BQ60" s="12"/>
-      <c r="BR60" s="12"/>
-      <c r="BS60" s="13"/>
-      <c r="BT60" s="11"/>
-      <c r="BU60" s="12"/>
-      <c r="BV60" s="12"/>
-      <c r="BW60" s="12"/>
-      <c r="BX60" s="13"/>
-    </row>
-    <row r="61" spans="2:76" ht="15" thickBot="1">
-      <c r="B61" s="33"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="26"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="29"/>
-      <c r="Z61" s="29"/>
-      <c r="AA61" s="29"/>
-      <c r="AB61" s="29"/>
-      <c r="AC61" s="29"/>
-      <c r="AD61" s="29"/>
-      <c r="AE61" s="29"/>
-      <c r="AF61" s="29"/>
-      <c r="AG61" s="29"/>
-      <c r="AH61" s="30"/>
-      <c r="AI61" s="14"/>
-      <c r="AJ61" s="15"/>
-      <c r="AK61" s="16"/>
-      <c r="AL61" s="14"/>
-      <c r="AM61" s="16"/>
-      <c r="AN61" s="14"/>
-      <c r="AO61" s="15"/>
-      <c r="AP61" s="15"/>
-      <c r="AQ61" s="16"/>
-      <c r="AR61" s="14"/>
-      <c r="AS61" s="15"/>
-      <c r="AT61" s="15"/>
-      <c r="AU61" s="15"/>
-      <c r="AV61" s="16"/>
-      <c r="AW61" s="14"/>
-      <c r="AX61" s="15"/>
-      <c r="AY61" s="16"/>
-      <c r="AZ61" s="14"/>
-      <c r="BA61" s="16"/>
-      <c r="BB61" s="14"/>
-      <c r="BC61" s="15"/>
-      <c r="BD61" s="15"/>
-      <c r="BE61" s="16"/>
-      <c r="BF61" s="14"/>
-      <c r="BG61" s="15"/>
-      <c r="BH61" s="15"/>
-      <c r="BI61" s="15"/>
-      <c r="BJ61" s="16"/>
-      <c r="BK61" s="14"/>
-      <c r="BL61" s="15"/>
-      <c r="BM61" s="16"/>
-      <c r="BN61" s="14"/>
-      <c r="BO61" s="16"/>
-      <c r="BP61" s="14"/>
-      <c r="BQ61" s="15"/>
-      <c r="BR61" s="15"/>
-      <c r="BS61" s="16"/>
-      <c r="BT61" s="14"/>
-      <c r="BU61" s="15"/>
-      <c r="BV61" s="15"/>
-      <c r="BW61" s="15"/>
-      <c r="BX61" s="16"/>
-    </row>
-    <row r="62" spans="2:76" ht="14.25">
-      <c r="B62" s="36"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="25"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="28"/>
-      <c r="W62" s="25"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="27"/>
-      <c r="AA62" s="27"/>
-      <c r="AB62" s="27"/>
-      <c r="AC62" s="27"/>
-      <c r="AD62" s="27"/>
-      <c r="AE62" s="27"/>
-      <c r="AF62" s="27"/>
-      <c r="AG62" s="27"/>
-      <c r="AH62" s="28"/>
-      <c r="AI62" s="11"/>
-      <c r="AJ62" s="12"/>
-      <c r="AK62" s="13"/>
-      <c r="AL62" s="11"/>
-      <c r="AM62" s="13"/>
-      <c r="AN62" s="11"/>
-      <c r="AO62" s="12"/>
-      <c r="AP62" s="12"/>
-      <c r="AQ62" s="13"/>
-      <c r="AR62" s="11"/>
-      <c r="AS62" s="12"/>
-      <c r="AT62" s="12"/>
-      <c r="AU62" s="12"/>
-      <c r="AV62" s="13"/>
-      <c r="AW62" s="11"/>
-      <c r="AX62" s="12"/>
-      <c r="AY62" s="13"/>
-      <c r="AZ62" s="11"/>
-      <c r="BA62" s="13"/>
-      <c r="BB62" s="11"/>
-      <c r="BC62" s="12"/>
-      <c r="BD62" s="12"/>
-      <c r="BE62" s="13"/>
-      <c r="BF62" s="11"/>
-      <c r="BG62" s="12"/>
-      <c r="BH62" s="12"/>
-      <c r="BI62" s="12"/>
-      <c r="BJ62" s="13"/>
-      <c r="BK62" s="11"/>
-      <c r="BL62" s="12"/>
-      <c r="BM62" s="13"/>
-      <c r="BN62" s="11"/>
-      <c r="BO62" s="13"/>
-      <c r="BP62" s="11"/>
-      <c r="BQ62" s="12"/>
-      <c r="BR62" s="12"/>
-      <c r="BS62" s="13"/>
-      <c r="BT62" s="11"/>
-      <c r="BU62" s="12"/>
-      <c r="BV62" s="12"/>
-      <c r="BW62" s="12"/>
-      <c r="BX62" s="13"/>
-    </row>
-    <row r="63" spans="2:76" ht="15" thickBot="1">
-      <c r="B63" s="33"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="29"/>
-      <c r="V63" s="30"/>
-      <c r="W63" s="26"/>
-      <c r="X63" s="29"/>
-      <c r="Y63" s="29"/>
-      <c r="Z63" s="29"/>
-      <c r="AA63" s="29"/>
-      <c r="AB63" s="29"/>
-      <c r="AC63" s="29"/>
-      <c r="AD63" s="29"/>
-      <c r="AE63" s="29"/>
-      <c r="AF63" s="29"/>
-      <c r="AG63" s="29"/>
-      <c r="AH63" s="30"/>
-      <c r="AI63" s="14"/>
-      <c r="AJ63" s="15"/>
-      <c r="AK63" s="16"/>
-      <c r="AL63" s="14"/>
-      <c r="AM63" s="16"/>
-      <c r="AN63" s="14"/>
-      <c r="AO63" s="15"/>
-      <c r="AP63" s="15"/>
-      <c r="AQ63" s="16"/>
-      <c r="AR63" s="14"/>
-      <c r="AS63" s="15"/>
-      <c r="AT63" s="15"/>
-      <c r="AU63" s="15"/>
-      <c r="AV63" s="16"/>
-      <c r="AW63" s="14"/>
-      <c r="AX63" s="15"/>
-      <c r="AY63" s="16"/>
-      <c r="AZ63" s="14"/>
-      <c r="BA63" s="16"/>
-      <c r="BB63" s="14"/>
-      <c r="BC63" s="15"/>
-      <c r="BD63" s="15"/>
-      <c r="BE63" s="16"/>
-      <c r="BF63" s="14"/>
-      <c r="BG63" s="15"/>
-      <c r="BH63" s="15"/>
-      <c r="BI63" s="15"/>
-      <c r="BJ63" s="16"/>
-      <c r="BK63" s="14"/>
-      <c r="BL63" s="15"/>
-      <c r="BM63" s="16"/>
-      <c r="BN63" s="14"/>
-      <c r="BO63" s="16"/>
-      <c r="BP63" s="14"/>
-      <c r="BQ63" s="15"/>
-      <c r="BR63" s="15"/>
-      <c r="BS63" s="16"/>
-      <c r="BT63" s="14"/>
-      <c r="BU63" s="15"/>
-      <c r="BV63" s="15"/>
-      <c r="BW63" s="15"/>
-      <c r="BX63" s="16"/>
-    </row>
-    <row r="64" spans="2:76" ht="14.25">
-      <c r="B64" s="36"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="46"/>
-      <c r="R64" s="25"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="27"/>
-      <c r="U64" s="27"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="25"/>
-      <c r="X64" s="27"/>
-      <c r="Y64" s="27"/>
-      <c r="Z64" s="27"/>
-      <c r="AA64" s="27"/>
-      <c r="AB64" s="27"/>
-      <c r="AC64" s="27"/>
-      <c r="AD64" s="27"/>
-      <c r="AE64" s="27"/>
-      <c r="AF64" s="27"/>
-      <c r="AG64" s="27"/>
-      <c r="AH64" s="28"/>
-      <c r="AI64" s="11"/>
-      <c r="AJ64" s="12"/>
-      <c r="AK64" s="13"/>
-      <c r="AL64" s="11"/>
-      <c r="AM64" s="13"/>
-      <c r="AN64" s="11"/>
-      <c r="AO64" s="12"/>
-      <c r="AP64" s="12"/>
-      <c r="AQ64" s="13"/>
-      <c r="AR64" s="11"/>
-      <c r="AS64" s="12"/>
-      <c r="AT64" s="12"/>
-      <c r="AU64" s="12"/>
-      <c r="AV64" s="13"/>
-      <c r="AW64" s="11"/>
-      <c r="AX64" s="12"/>
-      <c r="AY64" s="13"/>
-      <c r="AZ64" s="11"/>
-      <c r="BA64" s="13"/>
-      <c r="BB64" s="11"/>
-      <c r="BC64" s="12"/>
-      <c r="BD64" s="12"/>
-      <c r="BE64" s="13"/>
-      <c r="BF64" s="11"/>
-      <c r="BG64" s="12"/>
-      <c r="BH64" s="12"/>
-      <c r="BI64" s="12"/>
-      <c r="BJ64" s="13"/>
-      <c r="BK64" s="11"/>
-      <c r="BL64" s="12"/>
-      <c r="BM64" s="13"/>
-      <c r="BN64" s="11"/>
-      <c r="BO64" s="13"/>
-      <c r="BP64" s="11"/>
-      <c r="BQ64" s="12"/>
-      <c r="BR64" s="12"/>
-      <c r="BS64" s="13"/>
-      <c r="BT64" s="11"/>
-      <c r="BU64" s="12"/>
-      <c r="BV64" s="12"/>
-      <c r="BW64" s="12"/>
-      <c r="BX64" s="13"/>
-    </row>
-    <row r="65" spans="2:76" ht="15" thickBot="1">
-      <c r="B65" s="33"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="30"/>
-      <c r="W65" s="26"/>
-      <c r="X65" s="29"/>
-      <c r="Y65" s="29"/>
-      <c r="Z65" s="29"/>
-      <c r="AA65" s="29"/>
-      <c r="AB65" s="29"/>
-      <c r="AC65" s="29"/>
-      <c r="AD65" s="29"/>
-      <c r="AE65" s="29"/>
-      <c r="AF65" s="29"/>
-      <c r="AG65" s="29"/>
-      <c r="AH65" s="30"/>
-      <c r="AI65" s="14"/>
-      <c r="AJ65" s="15"/>
-      <c r="AK65" s="16"/>
-      <c r="AL65" s="14"/>
-      <c r="AM65" s="16"/>
-      <c r="AN65" s="14"/>
-      <c r="AO65" s="15"/>
-      <c r="AP65" s="15"/>
-      <c r="AQ65" s="16"/>
-      <c r="AR65" s="14"/>
-      <c r="AS65" s="15"/>
-      <c r="AT65" s="15"/>
-      <c r="AU65" s="15"/>
-      <c r="AV65" s="16"/>
-      <c r="AW65" s="14"/>
-      <c r="AX65" s="15"/>
-      <c r="AY65" s="16"/>
-      <c r="AZ65" s="14"/>
-      <c r="BA65" s="16"/>
-      <c r="BB65" s="14"/>
-      <c r="BC65" s="15"/>
-      <c r="BD65" s="15"/>
-      <c r="BE65" s="16"/>
-      <c r="BF65" s="14"/>
-      <c r="BG65" s="15"/>
-      <c r="BH65" s="15"/>
-      <c r="BI65" s="15"/>
-      <c r="BJ65" s="16"/>
-      <c r="BK65" s="14"/>
-      <c r="BL65" s="15"/>
-      <c r="BM65" s="16"/>
-      <c r="BN65" s="14"/>
-      <c r="BO65" s="16"/>
-      <c r="BP65" s="14"/>
-      <c r="BQ65" s="15"/>
-      <c r="BR65" s="15"/>
-      <c r="BS65" s="16"/>
-      <c r="BT65" s="14"/>
-      <c r="BU65" s="15"/>
-      <c r="BV65" s="15"/>
-      <c r="BW65" s="15"/>
-      <c r="BX65" s="16"/>
-    </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="BO5:BT5"/>
     <mergeCell ref="BU5:BW5"/>
     <mergeCell ref="AH1:AU3"/>
     <mergeCell ref="B12:D13"/>
@@ -6277,7 +5253,8 @@
     <mergeCell ref="AW12:BJ13"/>
     <mergeCell ref="BK12:BX13"/>
     <mergeCell ref="L8:X8"/>
-    <mergeCell ref="W16:AH17"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="BM5:BT5"/>
     <mergeCell ref="BP14:BS15"/>
     <mergeCell ref="BT14:BX15"/>
     <mergeCell ref="AZ14:BA15"/>
@@ -6292,7 +5269,7 @@
     <mergeCell ref="AW14:AY15"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.59055118110236204" bottom="0.59055118110236204" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>